--- a/Homework/16-D3/D3-Challenge-DOMAICA/assets/data/data_correlations.xlsx
+++ b/Homework/16-D3/D3-Challenge-DOMAICA/assets/data/data_correlations.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\copia-MIA-course\Homework\16-D3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\copia-MIA-course\Homework\16-D3\D3-Challenge-DOMAICA\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4F45FDCD-1E9E-4586-9FDB-962C21830E76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2105A2A1-F1FB-4746-BFB3-9372A97B1381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data correlation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -391,10 +402,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -874,9 +886,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1232,21 +1252,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="5" max="7" width="9.23046875" customWidth="1"/>
     <col min="8" max="8" width="8.53515625" customWidth="1"/>
     <col min="9" max="9" width="13.765625" customWidth="1"/>
     <col min="10" max="10" width="11.69140625" customWidth="1"/>
     <col min="11" max="11" width="10.4609375" customWidth="1"/>
-    <col min="12" max="12" width="12.3046875" customWidth="1"/>
-    <col min="21" max="21" width="8.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.3046875" customWidth="1"/>
+    <col min="13" max="13" width="6.84375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.23046875" customWidth="1"/>
+    <col min="15" max="15" width="10.53515625" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="10.3828125" customWidth="1"/>
+    <col min="18" max="18" width="10.69140625" customWidth="1"/>
+    <col min="19" max="19" width="11.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.84375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.3046875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.4">
@@ -1416,13 +1445,13 @@
       <c r="R3">
         <v>21.6</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="3">
         <f>CORREL(D:D,M:M)</f>
         <v>0.46234624291790566</v>
       </c>
@@ -1482,13 +1511,13 @@
       <c r="R4">
         <v>17.600000000000001</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="3">
         <f>CORREL(D:D,P:P)</f>
         <v>0.52081078881124387</v>
       </c>
@@ -1548,13 +1577,13 @@
       <c r="R5">
         <v>26.7</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="3">
         <f>CORREL(D:D,J:J)</f>
         <v>0.52448436333054971</v>
       </c>
@@ -1614,13 +1643,13 @@
       <c r="R6">
         <v>13.8</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="3">
         <f>CORREL(F:F,M:M)</f>
         <v>-7.6888273180994761E-3</v>
       </c>
@@ -1680,13 +1709,13 @@
       <c r="R7">
         <v>16.600000000000001</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="3">
         <f>CORREL(F:F,P:P)</f>
         <v>0.24807809326197988</v>
       </c>
@@ -1746,13 +1775,13 @@
       <c r="R8">
         <v>16.7</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="3">
         <f>CORREL(F:F,J:J)</f>
         <v>-0.38521822834939901</v>
       </c>
@@ -1812,13 +1841,13 @@
       <c r="R9">
         <v>21.8</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="3">
         <f>CORREL(H:H,M:M)</f>
         <v>-0.65113455013242916</v>
       </c>
@@ -1878,13 +1907,13 @@
       <c r="R10">
         <v>18.600000000000001</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="3">
         <f>CORREL(H:H,P:P)</f>
         <v>-0.66006994569705346</v>
       </c>
@@ -1944,13 +1973,13 @@
       <c r="R11">
         <v>18.8</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="3">
         <f>CORREL(H:H,K:K)</f>
         <v>-0.43401843753264491</v>
       </c>
@@ -4253,5 +4282,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>